--- a/062021.xlsx
+++ b/062021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/workspace/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DDAF2D-989D-8A47-9F3C-EFBA7E9889A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207D467-0AF9-2847-ABAD-E7A675E1A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="24">
   <si>
     <t>pTmax</t>
   </si>
@@ -60,12 +60,45 @@
   <si>
     <t>kT2max</t>
   </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>dsig/dxdQ2dxL</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_u</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>fb/GeV**2</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,14 +150,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,15 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +530,29 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -516,8 +597,30 @@
       <c r="N2">
         <v>5.1500000000000005E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>0.012*P2</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,8 +665,30 @@
       <c r="N3">
         <v>5.1500000000000005E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="2">0.012*P3</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -608,8 +733,30 @@
       <c r="N4">
         <v>8.1499999999999997E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -654,8 +801,30 @@
       <c r="N5">
         <v>8.1499999999999997E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -700,8 +869,30 @@
       <c r="N6">
         <v>8.1499999999999997E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -746,8 +937,30 @@
       <c r="N7">
         <v>8.1499999999999997E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -792,8 +1005,30 @@
       <c r="N8">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -838,8 +1073,30 @@
       <c r="N9">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -884,8 +1141,30 @@
       <c r="N10">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -930,8 +1209,30 @@
       <c r="N11">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -976,8 +1277,30 @@
       <c r="N12">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1022,8 +1345,30 @@
       <c r="N13">
         <v>1.2899999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1068,8 +1413,30 @@
       <c r="N14">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1114,8 +1481,30 @@
       <c r="N15">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1160,8 +1549,30 @@
       <c r="N16">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1206,8 +1617,30 @@
       <c r="N17">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1252,8 +1685,30 @@
       <c r="N18">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1298,8 +1753,30 @@
       <c r="N19">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1344,8 +1821,30 @@
       <c r="N20">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1390,8 +1889,30 @@
       <c r="N21">
         <v>2.0500000000000002E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1436,8 +1957,30 @@
       <c r="N22">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1482,8 +2025,30 @@
       <c r="N23">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1528,8 +2093,30 @@
       <c r="N24">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1574,8 +2161,30 @@
       <c r="N25">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1620,8 +2229,30 @@
       <c r="N26">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1666,8 +2297,30 @@
       <c r="N27">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1712,8 +2365,30 @@
       <c r="N28">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1758,8 +2433,30 @@
       <c r="N29">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1804,8 +2501,30 @@
       <c r="N30">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1850,8 +2569,30 @@
       <c r="N31">
         <v>3.2499999999999999E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1896,8 +2637,30 @@
       <c r="N32">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1942,8 +2705,30 @@
       <c r="N33">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1988,8 +2773,30 @@
       <c r="N34">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2034,8 +2841,30 @@
       <c r="N35">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2080,8 +2909,30 @@
       <c r="N36">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2126,8 +2977,30 @@
       <c r="N37">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2172,8 +3045,30 @@
       <c r="N38">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2218,8 +3113,30 @@
       <c r="N39">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2264,8 +3181,30 @@
       <c r="N40">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2310,8 +3249,30 @@
       <c r="N41">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2356,8 +3317,30 @@
       <c r="N42">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2402,8 +3385,30 @@
       <c r="N43">
         <v>5.1500000000000001E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2448,8 +3453,30 @@
       <c r="N44">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2494,8 +3521,30 @@
       <c r="N45">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2540,8 +3589,30 @@
       <c r="N46">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2586,8 +3657,30 @@
       <c r="N47">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2632,8 +3725,30 @@
       <c r="N48">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2678,8 +3793,30 @@
       <c r="N49">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2724,8 +3861,30 @@
       <c r="N50">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2770,8 +3929,30 @@
       <c r="N51">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>14</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2816,8 +3997,30 @@
       <c r="N52">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2862,8 +4065,30 @@
       <c r="N53">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2908,8 +4133,30 @@
       <c r="N54">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2954,8 +4201,30 @@
       <c r="N55">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3000,8 +4269,30 @@
       <c r="N56">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3046,8 +4337,30 @@
       <c r="N57">
         <v>8.1499999999999993E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3092,8 +4405,30 @@
       <c r="N58">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3138,8 +4473,30 @@
       <c r="N59">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3184,8 +4541,30 @@
       <c r="N60">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>14</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3230,8 +4609,30 @@
       <c r="N61">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>14</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3276,8 +4677,30 @@
       <c r="N62">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3322,8 +4745,30 @@
       <c r="N63">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3368,8 +4813,30 @@
       <c r="N64">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3414,8 +4881,30 @@
       <c r="N65">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3460,8 +4949,30 @@
       <c r="N66">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3469,7 +4980,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C111" si="2">B67^2</f>
+        <f t="shared" ref="C67:C111" si="3">B67^2</f>
         <v>0.28935792640000008</v>
       </c>
       <c r="D67">
@@ -3497,7 +5008,7 @@
         <v>0.76</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L111" si="3">1-I67</f>
+        <f t="shared" ref="L67:L111" si="4">1-I67</f>
         <v>0.17999999999999994</v>
       </c>
       <c r="M67">
@@ -3506,8 +5017,30 @@
       <c r="N67">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R111" si="5">0.012*P67</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3515,7 +5048,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D68">
@@ -3543,7 +5076,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M68">
@@ -3552,8 +5085,30 @@
       <c r="N68">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3561,7 +5116,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D69">
@@ -3589,7 +5144,7 @@
         <v>0.76</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M69">
@@ -3598,8 +5153,30 @@
       <c r="N69">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>14</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3607,7 +5184,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D70">
@@ -3635,7 +5212,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M70">
@@ -3644,8 +5221,30 @@
       <c r="N70">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3653,7 +5252,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D71">
@@ -3681,7 +5280,7 @@
         <v>0.76</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M71">
@@ -3690,8 +5289,30 @@
       <c r="N71">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>14</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3699,7 +5320,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D72">
@@ -3727,7 +5348,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M72">
@@ -3736,8 +5357,30 @@
       <c r="N72">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>14</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3745,7 +5388,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D73">
@@ -3773,7 +5416,7 @@
         <v>0.76</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M73">
@@ -3782,8 +5425,30 @@
       <c r="N73">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3791,7 +5456,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D74">
@@ -3819,7 +5484,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M74">
@@ -3828,8 +5493,30 @@
       <c r="N74">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3837,7 +5524,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D75">
@@ -3865,7 +5552,7 @@
         <v>0.76</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M75">
@@ -3874,8 +5561,30 @@
       <c r="N75">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>14</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3883,7 +5592,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D76">
@@ -3911,7 +5620,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M76">
@@ -3920,8 +5629,30 @@
       <c r="N76">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>14</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3929,7 +5660,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D77">
@@ -3957,7 +5688,7 @@
         <v>0.76</v>
       </c>
       <c r="L77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M77">
@@ -3966,8 +5697,30 @@
       <c r="N77">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>14</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3975,7 +5728,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D78">
@@ -4003,7 +5756,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M78">
@@ -4012,8 +5765,30 @@
       <c r="N78">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>14</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4021,7 +5796,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D79">
@@ -4049,7 +5824,7 @@
         <v>0.76</v>
       </c>
       <c r="L79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M79">
@@ -4058,8 +5833,30 @@
       <c r="N79">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4067,7 +5864,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D80">
@@ -4095,7 +5892,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M80">
@@ -4104,8 +5901,30 @@
       <c r="N80">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>14</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4113,7 +5932,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D81">
@@ -4141,7 +5960,7 @@
         <v>0.76</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M81">
@@ -4150,8 +5969,30 @@
       <c r="N81">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>14</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4159,7 +6000,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D82">
@@ -4187,7 +6028,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M82">
@@ -4196,8 +6037,30 @@
       <c r="N82">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>14</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4205,7 +6068,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D83">
@@ -4233,7 +6096,7 @@
         <v>0.76</v>
       </c>
       <c r="L83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M83">
@@ -4242,8 +6105,30 @@
       <c r="N83">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>14</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4251,7 +6136,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D84">
@@ -4279,7 +6164,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M84">
@@ -4288,8 +6173,30 @@
       <c r="N84">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>14</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4297,7 +6204,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D85">
@@ -4325,7 +6232,7 @@
         <v>0.76</v>
       </c>
       <c r="L85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M85">
@@ -4334,8 +6241,30 @@
       <c r="N85">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>14</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4343,7 +6272,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D86">
@@ -4371,7 +6300,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M86">
@@ -4380,8 +6309,30 @@
       <c r="N86">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>14</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4389,7 +6340,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D87">
@@ -4417,7 +6368,7 @@
         <v>0.76</v>
       </c>
       <c r="L87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M87">
@@ -4426,8 +6377,30 @@
       <c r="N87">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>14</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4435,7 +6408,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D88">
@@ -4463,7 +6436,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M88">
@@ -4472,8 +6445,30 @@
       <c r="N88">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>14</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4481,7 +6476,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D89">
@@ -4509,7 +6504,7 @@
         <v>0.76</v>
       </c>
       <c r="L89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M89">
@@ -4518,8 +6513,30 @@
       <c r="N89">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4527,7 +6544,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D90">
@@ -4555,7 +6572,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M90">
@@ -4564,8 +6581,30 @@
       <c r="N90">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4573,7 +6612,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D91">
@@ -4601,7 +6640,7 @@
         <v>0.76</v>
       </c>
       <c r="L91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M91">
@@ -4610,8 +6649,30 @@
       <c r="N91">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4619,7 +6680,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D92">
@@ -4647,7 +6708,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M92">
@@ -4656,8 +6717,30 @@
       <c r="N92">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>14</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4665,7 +6748,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D93">
@@ -4693,7 +6776,7 @@
         <v>0.76</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M93">
@@ -4702,8 +6785,30 @@
       <c r="N93">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>14</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4711,7 +6816,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D94">
@@ -4739,7 +6844,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M94">
@@ -4748,8 +6853,30 @@
       <c r="N94">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4757,7 +6884,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D95">
@@ -4785,7 +6912,7 @@
         <v>0.76</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M95">
@@ -4794,8 +6921,30 @@
       <c r="N95">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>14</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4803,7 +6952,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D96">
@@ -4831,7 +6980,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M96">
@@ -4840,8 +6989,30 @@
       <c r="N96">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>14</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4849,7 +7020,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D97">
@@ -4877,7 +7048,7 @@
         <v>0.76</v>
       </c>
       <c r="L97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M97">
@@ -4886,8 +7057,30 @@
       <c r="N97">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>14</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4895,7 +7088,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D98">
@@ -4923,7 +7116,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M98">
@@ -4932,8 +7125,30 @@
       <c r="N98">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>14</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4941,7 +7156,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D99">
@@ -4969,7 +7184,7 @@
         <v>0.76</v>
       </c>
       <c r="L99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M99">
@@ -4978,8 +7193,30 @@
       <c r="N99">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4987,7 +7224,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D100">
@@ -5015,7 +7252,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M100">
@@ -5024,8 +7261,30 @@
       <c r="N100">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>14</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5033,7 +7292,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D101">
@@ -5061,7 +7320,7 @@
         <v>0.76</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M101">
@@ -5070,8 +7329,30 @@
       <c r="N101">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>14</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5079,7 +7360,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D102">
@@ -5107,7 +7388,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M102">
@@ -5116,8 +7397,30 @@
       <c r="N102">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>14</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5125,7 +7428,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D103">
@@ -5153,7 +7456,7 @@
         <v>0.76</v>
       </c>
       <c r="L103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M103">
@@ -5162,8 +7465,30 @@
       <c r="N103">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>14</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5171,7 +7496,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D104">
@@ -5199,7 +7524,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M104">
@@ -5208,8 +7533,30 @@
       <c r="N104">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>14</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5217,7 +7564,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D105">
@@ -5245,7 +7592,7 @@
         <v>0.76</v>
       </c>
       <c r="L105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M105">
@@ -5254,8 +7601,30 @@
       <c r="N105">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>14</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5263,7 +7632,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D106">
@@ -5291,7 +7660,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M106">
@@ -5300,8 +7669,30 @@
       <c r="N106">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>14</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5309,7 +7700,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D107">
@@ -5337,7 +7728,7 @@
         <v>0.76</v>
       </c>
       <c r="L107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M107">
@@ -5346,8 +7737,30 @@
       <c r="N107">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>14</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5355,7 +7768,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D108">
@@ -5383,7 +7796,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M108">
@@ -5392,8 +7805,30 @@
       <c r="N108">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>14</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5401,7 +7836,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D109">
@@ -5429,7 +7864,7 @@
         <v>0.76</v>
       </c>
       <c r="L109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M109">
@@ -5438,8 +7873,30 @@
       <c r="N109">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>14</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5447,7 +7904,7 @@
         <v>0.61663999999999997</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38024488959999997</v>
       </c>
       <c r="D110">
@@ -5475,7 +7932,7 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="L110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="M110">
@@ -5484,8 +7941,30 @@
       <c r="N110">
         <v>3.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>14</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5493,7 +7972,7 @@
         <v>0.53792000000000006</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28935792640000008</v>
       </c>
       <c r="D111">
@@ -5521,7 +8000,7 @@
         <v>0.76</v>
       </c>
       <c r="L111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="M111">
@@ -5530,8 +8009,31 @@
       <c r="N111">
         <v>3.2500000000000001E-2</v>
       </c>
+      <c r="O111" t="s">
+        <v>14</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/062021.xlsx
+++ b/062021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/workspace/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D207D467-0AF9-2847-ABAD-E7A675E1A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CEBDCB-40C6-9244-9A30-2CA6CC78700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>sys_u</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,16 +540,16 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -611,13 +611,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -679,13 +679,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -747,13 +747,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -815,13 +815,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -883,13 +883,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -951,13 +951,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1019,13 +1019,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1087,13 +1087,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1155,13 +1155,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1223,13 +1223,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1291,13 +1291,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1359,13 +1359,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1427,13 +1427,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1495,13 +1495,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1563,13 +1563,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1631,13 +1631,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1699,13 +1699,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1767,13 +1767,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1835,13 +1835,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1903,13 +1903,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1971,13 +1971,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2039,13 +2039,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -2107,13 +2107,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -2175,13 +2175,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2243,13 +2243,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2311,13 +2311,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -2379,13 +2379,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -2447,13 +2447,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -2515,13 +2515,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -2583,13 +2583,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -2651,13 +2651,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -2719,13 +2719,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -2787,13 +2787,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -2855,13 +2855,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -2923,13 +2923,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -2991,13 +2991,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -3059,13 +3059,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -3127,13 +3127,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -3195,13 +3195,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -3263,13 +3263,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -3331,13 +3331,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -3399,13 +3399,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -3467,13 +3467,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -3535,13 +3535,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -3603,13 +3603,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -3671,13 +3671,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -3739,13 +3739,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -3807,13 +3807,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -3875,13 +3875,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -3943,13 +3943,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -4011,13 +4011,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -4079,13 +4079,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -4147,13 +4147,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -4215,13 +4215,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -4283,13 +4283,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -4351,13 +4351,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -4419,13 +4419,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -4487,13 +4487,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -4555,13 +4555,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -4623,13 +4623,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -4691,13 +4691,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -4759,13 +4759,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -4827,13 +4827,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -4895,13 +4895,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -4963,13 +4963,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -5031,13 +5031,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -5099,13 +5099,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -5167,13 +5167,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -5235,13 +5235,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -5303,13 +5303,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -5371,13 +5371,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -5439,13 +5439,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -5507,13 +5507,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -5575,13 +5575,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -5643,13 +5643,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -5711,13 +5711,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -5779,13 +5779,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -5847,13 +5847,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -5915,13 +5915,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -5983,13 +5983,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -6051,13 +6051,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -6119,13 +6119,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -6187,13 +6187,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -6255,13 +6255,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T85" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -6323,13 +6323,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -6391,13 +6391,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -6459,13 +6459,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -6527,13 +6527,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -6595,13 +6595,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -6663,13 +6663,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -6731,13 +6731,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -6799,13 +6799,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -6867,13 +6867,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -6935,13 +6935,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -7003,13 +7003,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -7071,13 +7071,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -7139,13 +7139,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -7207,13 +7207,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -7275,13 +7275,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -7343,13 +7343,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -7411,13 +7411,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -7479,13 +7479,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -7547,13 +7547,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -7615,13 +7615,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -7683,13 +7683,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -7751,13 +7751,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -7819,13 +7819,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -7887,13 +7887,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -7955,13 +7955,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
@@ -8023,13 +8023,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
